--- a/analysis_findings.xlsx
+++ b/analysis_findings.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\MyProjects\my_git_masters\Google Data Analytics\Case Study 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4092FD-9F67-4C21-92B1-ECF71B8A5827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A784EB-DF08-4E36-A55C-79F7D5E7FD11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avg_ride_length" sheetId="1" r:id="rId1"/>
-    <sheet name="count of rides" sheetId="3" r:id="rId2"/>
+    <sheet name="count_of_rides" sheetId="3" r:id="rId2"/>
+    <sheet name="data_viz" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">avg_ride_length!$C$1:$C$15</definedName>
@@ -2363,7 +2364,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E96-4639-88D3-700DA1FE1ACE}"/>
+              <c16:uniqueId val="{00000000-3F41-4B8B-94DF-B3A701CABC37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2438,7 +2439,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E96-4639-88D3-700DA1FE1ACE}"/>
+              <c16:uniqueId val="{00000001-3F41-4B8B-94DF-B3A701CABC37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2645,6 +2646,683 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-IN" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Count of rides by day_of_week and member_casual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2020220599040107"/>
+          <c:y val="2.8481833954228798E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-IN" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>casual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>Mon</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Tue</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Wed</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Thu</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Fri</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Sat</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Sun</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>154868</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>149850</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>163603</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>170629</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>213189</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>342539</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>277157</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4852-4C2F-9425-2B26C92DE54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>member</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>Mon</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Tue</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Wed</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Thu</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Fri</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Sat</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Sun</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>329259</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>354069</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>369074</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>361698</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>361894</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>353224</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>301263</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4852-4C2F-9425-2B26C92DE54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="65374352"/>
+        <c:axId val="65177632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65374352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65177632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65177632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65374352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2765,6 +3443,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3772,6 +4490,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4319,16 +5540,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592931</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4353,29 +5574,72 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FD973D-1634-4425-8469-8695CC816C46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F800E439-5AAD-4201-9876-3D87976366D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA3FF9B-B841-43D2-83F0-79EF79AEC453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4960,7 +6224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2B72CC-928F-44E1-98A5-A41518AC7D18}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5254,4 +6518,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8C68BD-BCF0-43B1-AB84-611FF84D162D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/analysis_findings.xlsx
+++ b/analysis_findings.xlsx
@@ -5,17 +5,18 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\MyProjects\my_git_masters\Google Data Analytics\Case Study 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Documents\myWork\My Projects\Google Data Analytics\Bike Share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A784EB-DF08-4E36-A55C-79F7D5E7FD11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E3E0D2-C583-4DE3-811E-E17AF03924B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avg_ride_length" sheetId="1" r:id="rId1"/>
     <sheet name="count_of_rides" sheetId="3" r:id="rId2"/>
     <sheet name="data_viz" sheetId="4" r:id="rId3"/>
+    <sheet name="Conclusion" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">avg_ride_length!$C$1:$C$15</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>member_casual</t>
   </si>
@@ -107,17 +108,38 @@
     <t>Total Riders</t>
   </si>
   <si>
-    <t>Precentage of member_riders that are potential customer</t>
+    <t xml:space="preserve">Precentage of total_riders </t>
   </si>
   <si>
-    <t>Precentage of total_riders that are potential customer</t>
+    <t>Precentage of member_riders</t>
+  </si>
+  <si>
+    <t>Casual Riders</t>
+  </si>
+  <si>
+    <t>Member Riders</t>
+  </si>
+  <si>
+    <t>Potential Target</t>
+  </si>
+  <si>
+    <t>Percentage of casual_riders</t>
+  </si>
+  <si>
+    <t>We have 1136671 casual_riders who use our services like member_riders.</t>
+  </si>
+  <si>
+    <t>Findings</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +274,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +485,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -594,16 +664,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5540,16 +5619,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2380</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1462088</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>592931</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>116681</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>569119</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6222,24 +6301,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2B72CC-928F-44E1-98A5-A41518AC7D18}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -6253,17 +6336,8 @@
       <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6279,20 +6353,9 @@
       <c r="E2" s="3">
         <v>3187.7744888276302</v>
       </c>
-      <c r="H2" s="2">
-        <f>SUM(D2:D15)</f>
-        <v>3902316</v>
-      </c>
-      <c r="I2" s="4">
-        <f>1136671/H2</f>
-        <v>0.29128112638750936</v>
-      </c>
-      <c r="J2" s="4">
-        <f>1136671/2430481</f>
-        <v>0.4676732712578292</v>
-      </c>
+      <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6309,7 +6372,7 @@
         <v>2773.0785055660299</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6326,7 +6389,7 @@
         <v>2533.32116116116</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6343,7 +6406,7 @@
         <v>2505.1129258020901</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6360,7 +6423,7 @@
         <v>2730.8905637377002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6377,7 +6440,7 @@
         <v>2682.24429496831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6394,7 +6457,7 @@
         <v>2887.2321049573902</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6411,7 +6474,7 @@
         <v>1075.8985139230499</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6428,7 +6491,7 @@
         <v>893.59655165082802</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6445,7 +6508,7 @@
         <v>865.35857417622003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6462,7 +6525,7 @@
         <v>880.87209069183996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6479,7 +6542,7 @@
         <v>875.43166674960901</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6496,7 +6559,7 @@
         <v>918.85578097453902</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6524,8 +6587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8C68BD-BCF0-43B1-AB84-611FF84D162D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6533,4 +6596,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679C066-A093-48BD-B516-F4378CC2B919}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="2">
+        <f>SUM(count_of_rides!D2:D15)</f>
+        <v>3902316</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B2-D2</f>
+        <v>1471835</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2430481</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1136671</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2/B2</f>
+        <v>0.29128112638750936</v>
+      </c>
+      <c r="G2" s="4">
+        <f>E2/C2</f>
+        <v>0.77228153971063329</v>
+      </c>
+      <c r="H2" s="4">
+        <f>E2/D2</f>
+        <v>0.4676732712578292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analysis_findings.xlsx
+++ b/analysis_findings.xlsx
@@ -2,26 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Documents\myWork\My Projects\Google Data Analytics\Bike Share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Documents\myWork\Github\Case-study-Google-Data-Analytics-Bike_Share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E3E0D2-C583-4DE3-811E-E17AF03924B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2794C9D1-28AE-436A-9BF7-F66AFFFB9880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avg_ride_length" sheetId="1" r:id="rId1"/>
-    <sheet name="count_of_rides" sheetId="3" r:id="rId2"/>
-    <sheet name="data_viz" sheetId="4" r:id="rId3"/>
-    <sheet name="Conclusion" sheetId="5" r:id="rId4"/>
+    <sheet name="pivot avg_ride_len" sheetId="6" r:id="rId2"/>
+    <sheet name="count_of_rides" sheetId="3" r:id="rId3"/>
+    <sheet name="pivot count_of_rides" sheetId="9" r:id="rId4"/>
+    <sheet name="data_viz" sheetId="4" r:id="rId5"/>
+    <sheet name="Conclusion" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">avg_ride_length!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="13" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>member_casual</t>
   </si>
@@ -43,9 +49,6 @@
   </si>
   <si>
     <t>ride_length (minutes)</t>
-  </si>
-  <si>
-    <t>ride_length</t>
   </si>
   <si>
     <t>casual</t>
@@ -133,6 +136,39 @@
   </si>
   <si>
     <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Average of ride_length</t>
+  </si>
+  <si>
+    <t>Average time difference</t>
+  </si>
+  <si>
+    <t>ride_length (hours)</t>
+  </si>
+  <si>
+    <t>mins</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>Sum of number_of_rides</t>
+  </si>
+  <si>
+    <t>average count difference</t>
+  </si>
+  <si>
+    <t>Approximately</t>
   </si>
 </sst>
 </file>
@@ -620,7 +656,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -663,10 +699,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -675,16 +711,27 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -724,6 +771,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -754,62 +802,11 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analysis_findings.xlsx]pivot avg_ride_len!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Average of ride_length (minutes) by day_of_week and member_casual</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -996,35 +993,330 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1047,7 +1339,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>casual</c:v>
+            <c:strRef>
+              <c:f>'pivot avg_ride_len'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>casual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1060,61 +1360,67 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>Monday</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Tuesday</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Wednesday</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Thursday</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Friday</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>Saturday</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>Sunday</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'pivot avg_ride_len'!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>2773.0785059999998</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2533.3211609999998</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2505.1129259999998</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2730.8905639999998</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2682.244295</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2887.232105</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>3187.7744889999999</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'pivot avg_ride_len'!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2773.0785069444446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2533.3211574074076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2505.1129282407405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2730.8905671296297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2682.2442939814814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2887.2321064814814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3187.7744907407409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01FA-4722-9B7C-F699E645466B}"/>
+              <c16:uniqueId val="{00000000-3B74-4440-A1A7-A55E516FAA4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1122,7 +1428,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>member</c:v>
+            <c:strRef>
+              <c:f>'pivot avg_ride_len'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>member</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1135,61 +1449,67 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>Monday</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Tuesday</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Wednesday</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Thursday</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Friday</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>Saturday</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>Sunday</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'pivot avg_ride_len'!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>893.59655169999996</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>865.35857420000002</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>880.87209069999994</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>875.43166670000005</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>918.85578099999998</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>1055.8866579999999</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>1075.898514</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'pivot avg_ride_len'!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>893.59655092592595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>865.35857638888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>880.87209490740736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>875.43166666666662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>918.85577546296292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1055.8866550925925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1075.8985185185186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-01FA-4722-9B7C-F699E645466B}"/>
+              <c16:uniqueId val="{00000002-3B74-4440-A1A7-A55E516FAA4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1203,11 +1523,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1385791871"/>
-        <c:axId val="1382993935"/>
+        <c:axId val="1546288960"/>
+        <c:axId val="1546194240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1385791871"/>
+        <c:axId val="1546288960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382993935"/>
+        <c:crossAx val="1546194240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1258,7 +1578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1382993935"/>
+        <c:axId val="1546194240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385791871"/>
+        <c:crossAx val="1546288960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,6 +1674,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1386,7 +1713,22 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst/>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1403,83 +1745,11 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analysis_findings.xlsx]pivot count_of_rides!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-IN" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Count of rides by day_of_week and member_casual</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2020220599040107"/>
-          <c:y val="2.8481833954228798E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-IN" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1594,118 +1864,6 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1717,7 +1875,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>casual</c:v>
+            <c:strRef>
+              <c:f>'pivot count_of_rides'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>casual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1730,61 +1896,67 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>Mon</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Tue</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Wed</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Thu</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Fri</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>Sat</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>Sun</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'pivot count_of_rides'!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>154868</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>149850</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>163603</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>170629</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>213189</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>342539</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>277157</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'pivot count_of_rides'!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>154868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149850</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>342539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>277157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-45F2-43A3-8F46-07FE64C761B9}"/>
+              <c16:uniqueId val="{00000000-73ED-4A6F-A335-EBF70D3DCF0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1792,7 +1964,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>member</c:v>
+            <c:strRef>
+              <c:f>'pivot count_of_rides'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>member</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1805,61 +1985,67 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>Mon</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Tue</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Wed</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Thu</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Fri</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>Sat</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>Sun</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'pivot count_of_rides'!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>329259</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>354069</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>369074</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>361698</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>361894</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>353224</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>301263</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'pivot count_of_rides'!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>329259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>369074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>361894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>353224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>301263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-45F2-43A3-8F46-07FE64C761B9}"/>
+              <c16:uniqueId val="{00000001-73ED-4A6F-A335-EBF70D3DCF0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1873,11 +2059,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="65374352"/>
-        <c:axId val="65177632"/>
+        <c:axId val="1694084176"/>
+        <c:axId val="1847664864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65374352"/>
+        <c:axId val="1694084176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,7 +2106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65177632"/>
+        <c:crossAx val="1847664864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1928,7 +2114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65177632"/>
+        <c:axId val="1847664864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,7 +2165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65374352"/>
+        <c:crossAx val="1694084176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2063,7 +2249,22 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst/>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -5578,23 +5779,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CF97CE-CEE8-430D-9D83-BBEAF1DBEA28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A5C55B-4151-4D27-BD32-E96BAFD6598B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5619,23 +5820,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1462088</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>73818</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>569119</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>188119</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 1">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A76A857-9ECD-421E-BD55-BF979A79FFC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28694865-801E-4F27-84F5-89F31200D595}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5733,6 +5934,636 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="GAURAV SRIVASTAVA" refreshedDate="44392.604517245367" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14" xr:uid="{36D21DDB-F4BC-49CD-80AC-3980BA34DEEB}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:E15" sheet="avg_ride_length"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="member_casual" numFmtId="0">
+      <sharedItems count="2">
+        <s v="casual"/>
+        <s v="member"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="day_of_week" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Friday"/>
+        <s v="Monday"/>
+        <s v="Saturday"/>
+        <s v="Sunday"/>
+        <s v="Thursday"/>
+        <s v="Tuesday"/>
+        <s v="Wednesday"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ride_length (minutes)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="865.35857420000002" maxValue="3187.7744889999999"/>
+    </cacheField>
+    <cacheField name="ride_length" numFmtId="21">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1902-05-14T08:36:21" maxDate="1908-09-21T18:35:16"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="GAURAV SRIVASTAVA" refreshedDate="44392.611957291665" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14" xr:uid="{8E526CD6-081B-4D19-82F2-389669CF35E1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:D15" sheet="count_of_rides"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="member_casual" numFmtId="0">
+      <sharedItems count="2">
+        <s v="casual"/>
+        <s v="member"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="weekday" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Sun"/>
+        <s v="Mon"/>
+        <s v="Tue"/>
+        <s v="Wed"/>
+        <s v="Thu"/>
+        <s v="Fri"/>
+        <s v="Sat"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="number_of_rides" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="149850" maxValue="369074"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2682.244295"/>
+    <d v="1907-05-05T05:51:47"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="918.85578099999998"/>
+    <d v="1902-07-06T20:32:19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2773.0785059999998"/>
+    <d v="1907-08-04T01:53:03"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="893.59655169999996"/>
+    <d v="1902-06-11T14:19:02"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2887.232105"/>
+    <d v="1907-11-26T05:34:14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1055.8866579999999"/>
+    <d v="1902-11-20T21:16:47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3187.7744889999999"/>
+    <d v="1908-09-21T18:35:16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1075.898514"/>
+    <d v="1902-12-10T21:33:52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2730.8905639999998"/>
+    <d v="1907-06-22T21:22:25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="875.43166670000005"/>
+    <d v="1902-05-24T10:21:36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="2533.3211609999998"/>
+    <d v="1906-12-07T07:42:28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="865.35857420000002"/>
+    <d v="1902-05-14T08:36:21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="2505.1129259999998"/>
+    <d v="1906-11-09T02:42:37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="880.87209069999994"/>
+    <d v="1902-05-29T20:55:49"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="277157"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="154868"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="149850"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="163603"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="170629"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="213189"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="342539"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="301263"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="329259"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="354069"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="369074"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="361698"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="361894"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="353224"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F258A53-61F1-4051-8527-9AF7C798E7CA}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="21" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of ride_length" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="16">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{295D9C88-DE69-4537-930F-328E5BE46A67}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of number_of_rides" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6034,11 +6865,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -6051,7 +6888,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6059,16 +6896,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>2682.244295</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.24429398148148149</v>
+      <c r="E2" s="19">
+        <f>D2/60</f>
+        <v>44.704071583333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6076,16 +6914,17 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>918.85578099999998</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.28596064814814814</v>
+      <c r="E3" s="19">
+        <f t="shared" ref="E3:E15" si="0">D3/60</f>
+        <v>15.314263016666667</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6093,16 +6932,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2773.0785059999998</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.32762731481481483</v>
+      <c r="E4" s="19">
+        <f t="shared" si="0"/>
+        <v>46.217975099999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6110,16 +6950,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
       <c r="D5">
         <v>893.59655169999996</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.36929398148148151</v>
+      <c r="E5" s="19">
+        <f t="shared" si="0"/>
+        <v>14.893275861666666</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6127,16 +6968,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2887.232105</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.4109606481481482</v>
+      <c r="E6" s="19">
+        <f t="shared" si="0"/>
+        <v>48.120535083333337</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6144,16 +6986,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1055.8866579999999</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.45262731481481483</v>
+      <c r="E7" s="19">
+        <f t="shared" si="0"/>
+        <v>17.598110966666663</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6161,16 +7004,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>3187.7744889999999</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.49429398148148151</v>
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>53.129574816666668</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6178,16 +7022,17 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>1075.898514</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.53596064814814814</v>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>17.931641899999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6195,16 +7040,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>2730.8905639999998</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.57762731481481489</v>
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>45.514842733333332</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6212,16 +7058,17 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>875.43166670000005</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.61929398148148151</v>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>14.590527778333334</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6229,16 +7076,17 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>2533.3211609999998</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.66096064814814814</v>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>42.222019349999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6246,16 +7094,17 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>865.35857420000002</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.70262731481481477</v>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>14.422642903333333</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6263,16 +7112,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>2505.1129259999998</v>
       </c>
-      <c r="E14" s="1">
-        <v>0.7442939814814814</v>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>41.751882099999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6280,315 +7130,672 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>880.87209069999994</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.78596064814814814</v>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>14.681201511666666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6DC88-D598-473B-847B-94B3639933E7}">
+  <dimension ref="A3:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2773.0785069444446</v>
+      </c>
+      <c r="C5" s="18">
+        <v>893.59655092592595</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1833.3375289351852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2533.3211574074076</v>
+      </c>
+      <c r="C6" s="18">
+        <v>865.35857638888888</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1699.3398668981481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2505.1129282407405</v>
+      </c>
+      <c r="C7" s="18">
+        <v>880.87209490740736</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1692.9925115740739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2730.8905671296297</v>
+      </c>
+      <c r="C8" s="18">
+        <v>875.43166666666662</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1803.1611168981481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2682.2442939814814</v>
+      </c>
+      <c r="C9" s="18">
+        <v>918.85577546296292</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1800.5500347222221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2887.2321064814814</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1055.8866550925925</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1971.5593807870368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3187.7744907407409</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1075.8985185185186</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2131.8365046296299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2757.0934358465606</v>
+      </c>
+      <c r="C12" s="18">
+        <v>937.98569113756605</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1847.5395634920635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <f>(B12-C12)/7</f>
+        <v>259.87253495842782</v>
+      </c>
+      <c r="C16" s="19">
+        <f>259.877/60</f>
+        <v>4.3312833333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2B72CC-928F-44E1-98A5-A41518AC7D18}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:N4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="27.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" customWidth="1"/>
     <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="2" customWidth="1"/>
     <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
         <v>277157</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>3187.7744888276302</v>
       </c>
-      <c r="Q2" s="4"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
         <v>154868</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>2773.0785055660299</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
         <v>149850</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2533.32116116116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
         <v>163603</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2505.1129258020901</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
         <v>170629</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2730.8905637377002</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
         <v>213189</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2682.24429496831</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
         <v>342539</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>2887.2321049573902</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
         <v>301263</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1075.8985139230499</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
         <v>329259</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>893.59655165082802</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
         <v>354069</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>865.35857417622003</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
         <v>369074</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>880.87209069183996</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
         <v>361698</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>875.43166674960901</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
         <v>361894</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>918.85578097453902</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2">
         <v>353224</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>1055.8866583244601</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865E94B-F3E3-4E43-B65B-4B450BCA25BA}">
+  <dimension ref="A3:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="18">
+        <v>154868</v>
+      </c>
+      <c r="C5" s="18">
+        <v>329259</v>
+      </c>
+      <c r="D5" s="18">
+        <v>484127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18">
+        <v>149850</v>
+      </c>
+      <c r="C6" s="18">
+        <v>354069</v>
+      </c>
+      <c r="D6" s="18">
+        <v>503919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="18">
+        <v>163603</v>
+      </c>
+      <c r="C7" s="18">
+        <v>369074</v>
+      </c>
+      <c r="D7" s="18">
+        <v>532677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18">
+        <v>170629</v>
+      </c>
+      <c r="C8" s="18">
+        <v>361698</v>
+      </c>
+      <c r="D8" s="18">
+        <v>532327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="18">
+        <v>213189</v>
+      </c>
+      <c r="C9" s="18">
+        <v>361894</v>
+      </c>
+      <c r="D9" s="18">
+        <v>575083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="18">
+        <v>342539</v>
+      </c>
+      <c r="C10" s="18">
+        <v>353224</v>
+      </c>
+      <c r="D10" s="18">
+        <v>695763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="18">
+        <v>277157</v>
+      </c>
+      <c r="C11" s="18">
+        <v>301263</v>
+      </c>
+      <c r="D11" s="18">
+        <v>578420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1471835</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2430481</v>
+      </c>
+      <c r="D12" s="18">
+        <v>3902316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1">
+        <f>(C12-B12)/7</f>
+        <v>136949.42857142858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8C68BD-BCF0-43B1-AB84-611FF84D162D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6598,12 +7805,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679C066-A093-48BD-B516-F4378CC2B919}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6613,84 +7820,87 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="1">
         <f>SUM(count_of_rides!D2:D15)</f>
         <v>3902316</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f>B2-D2</f>
         <v>1471835</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2430481</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>1136671</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>E2/B2</f>
         <v>0.29128112638750936</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>E2/C2</f>
         <v>0.77228153971063329</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f>E2/D2</f>
         <v>0.4676732712578292</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
